--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133618.463005472</v>
+        <v>2126601.44811376</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>198.6924235154195</v>
+        <v>179.49237778194</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>163.1063757616379</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>180.7264936474769</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>235.9293919636961</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>107.0735227013098</v>
       </c>
       <c r="T8" t="n">
-        <v>155.2548023872867</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>70.1675802982076</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>188.1607094910709</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>22.84641524474996</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.306260043173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>33.25293539638682</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>32.25681747480627</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>276.2330889766196</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>240.4462986726079</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>218.7857792724803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.7402507536361</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>94.04575861150478</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>190.7955476484028</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.02060534945</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.058088409038</v>
+        <v>1018.423421381101</v>
       </c>
       <c r="D2" t="n">
-        <v>1237.058088409038</v>
+        <v>660.1577227743508</v>
       </c>
       <c r="E2" t="n">
-        <v>1237.058088409038</v>
+        <v>660.1577227743508</v>
       </c>
       <c r="F2" t="n">
-        <v>826.0721836194309</v>
+        <v>249.1718179847432</v>
       </c>
       <c r="G2" t="n">
-        <v>408.1083755176178</v>
+        <v>235.2484139233341</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.620445413572</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.9581501493108</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>533.9581501493108</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>533.9581501493108</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>533.9581501493108</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>533.9581501493108</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.9581501493108</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.089911220684</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.127394280272</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>779.861695673522</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>779.861695673522</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>772.9161949243186</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1893.689751284806</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,49 +4646,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.326058303791</v>
+        <v>2533.965328113049</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.326058303791</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.326058303791</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.326058303791</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.326058303791</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.1482364572794</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C10" t="n">
-        <v>261.1482364572794</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D10" t="n">
-        <v>261.1482364572794</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1482364572794</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>261.1482364572794</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.1482364572794</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,22 +5053,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,13 +5077,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262063</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,13 +5281,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5305,10 +5305,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241921</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688035</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471154</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557899</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557899</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557899</v>
+        <v>1252.053668231499</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557899</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557899</v>
+        <v>962.6364981945386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>561.6946978510159</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C19" t="n">
-        <v>392.758514923109</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>392.758514923109</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>392.758514923109</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>392.758514923109</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1466.333626643957</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1466.333626643957</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>1466.333626643957</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247858</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="W19" t="n">
-        <v>964.1357418247858</v>
+        <v>1211.64913843807</v>
       </c>
       <c r="X19" t="n">
-        <v>964.1357418247858</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.3431626812556</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1219.892948359297</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>965.2084601534104</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>675.7912901164498</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1256.041221393652</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1256.041221393652</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3926.422678879032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3757.486495951125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3757.486495951125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4549.85945949167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4549.85945949167</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4328.863722852801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4108.071143709271</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1349.683694039078</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1125.898278828584</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>836.769640042142</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>836.769640042142</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>836.769640042142</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1403.920554788706</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1114.791916002264</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1114.791916002264</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>825.3747459653033</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>825.3747459653033</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7201,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2801.004654415706</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1306.193495155475</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1017.064856369034</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735881</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>180.0237016735874</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229572</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978135</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>33.38685156731836</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>229.2912280790781</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330892184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>133.2406330669908</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>165.663992508797</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10.00426342195772</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>45.79105372596945</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.923876116556897</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>50.18055922996717</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>127.5018024468845</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583911</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="J2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="K2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="M2" t="n">
-        <v>527889.2306459071</v>
-      </c>
       <c r="N2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="O2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,10 +26438,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060873</v>
+        <v>-284256.6304060868</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084573</v>
+        <v>305711.2488084572</v>
       </c>
       <c r="D6" t="n">
         <v>305711.2488084571</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.739366576</v>
+        <v>-112407.3306262984</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505981</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103198</v>
+        <v>412752.7058505978</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177269</v>
+        <v>236329.4866580049</v>
       </c>
       <c r="K6" t="n">
-        <v>413727.2971103194</v>
+        <v>412752.7058505978</v>
       </c>
       <c r="L6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="M6" t="n">
-        <v>278926.2818764827</v>
+        <v>277951.6906167606</v>
       </c>
       <c r="N6" t="n">
-        <v>413727.2971103197</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="O6" t="n">
-        <v>413727.2971103195</v>
+        <v>412752.7058505979</v>
       </c>
       <c r="P6" t="n">
-        <v>413727.2971103196</v>
+        <v>412752.7058505979</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>125.2303492489376</v>
+        <v>144.4303949824172</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>89.0312675621901</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>184.5463981235306</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>177.8547780570989</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.04847948014699</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>67.34219010766166</v>
       </c>
       <c r="T8" t="n">
-        <v>61.19351797037106</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>75.25346772472365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>1.882105749397013</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.298977755714201e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586621</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556192</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,10 +35977,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>462.3874039146955</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958057</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126601.44811376</v>
+        <v>2131540.710962792</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>179.49237778194</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>57.28111013508705</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>180.7264936474769</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.5575218201946</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.90848140332574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>163.9206648785242</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>107.0735227013098</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206841</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>188.1607094910709</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>123.7559579568091</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.96451678969</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.2082776889381</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22.84641524474996</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>32.25681747480627</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985811</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476483989</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896923</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.827716759979</v>
       </c>
     </row>
     <row r="23">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335941798</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>240.4462986726079</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>101.955748393799</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3243,10 +3243,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>161.4046520073175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.385938321513</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.423421381101</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>660.1577227743508</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>660.1577227743508</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>249.1718179847432</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>235.2484139233341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1773.985778385635</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1773.985778385635</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>1268.452009733665</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>882.6637571354211</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>471.6778523458135</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>721.1507201626711</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E7" t="n">
-        <v>573.2376265802779</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>609.3508327416152</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>240.3883158012035</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.965328113049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2533.965328113049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2280.203542751141</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>1949.14065540757</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.372000137456</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1222.906241876376</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>995.950672805737</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464726</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464726</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464726</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>97.69838933464726</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.346854164887</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.854947839649</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.726309053207</v>
+        <v>839.1297236865947</v>
       </c>
       <c r="V13" t="n">
-        <v>765.0418208473204</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="W13" t="n">
-        <v>475.6246508103599</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="X13" t="n">
-        <v>247.6350999123426</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123426</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1954542207687</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>536.9315552689001</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>386.8149158565643</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>386.8149158565643</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>386.8149158565643</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>218.6395941763849</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1252.053668231499</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W16" t="n">
-        <v>962.6364981945386</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X16" t="n">
-        <v>962.6364981945386</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.8439190510085</v>
+        <v>536.9315552689001</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1466.333626643957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1466.333626643957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1466.333626643957</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V19" t="n">
-        <v>1211.64913843807</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.64913843807</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>983.6595875400524</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.8670083965222</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,52 +5731,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6007,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688035</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799328</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1256.041221393652</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1256.041221393652</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>966.6240513566914</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6442,34 +6442,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>518.7960260307028</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>350.6207043505234</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>200.2026958984667</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6891,7 +6891,7 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
         <v>614.6238123952637</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,10 +6961,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>283.6093329825495</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>33.38685156731836</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>162.4813944417682</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>28.70555067859804</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23712,13 +23712,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>229.2912280790781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>165.663992508797</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>61.34209567542908</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>48.75693659211578</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>192.8130786476615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>45.79105372596945</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>8.463497070472954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862099.2923323691</v>
+        <v>862099.292332369</v>
       </c>
     </row>
     <row r="10">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="G2" t="n">
-        <v>527889.2306459068</v>
-      </c>
       <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="L2" t="n">
         <v>527889.230645907</v>
@@ -26349,7 +26349,7 @@
         <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
         <v>527889.230645907</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060868</v>
+        <v>-284256.630406087</v>
       </c>
       <c r="C6" t="n">
         <v>305711.2488084572</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084572</v>
       </c>
       <c r="E6" t="n">
-        <v>-112407.3306262984</v>
+        <v>-111530.1984925486</v>
       </c>
       <c r="F6" t="n">
-        <v>412752.7058505981</v>
+        <v>413629.8379843475</v>
       </c>
       <c r="G6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843477</v>
       </c>
       <c r="H6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843477</v>
       </c>
       <c r="I6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="J6" t="n">
-        <v>236329.4866580049</v>
+        <v>237206.6187917547</v>
       </c>
       <c r="K6" t="n">
-        <v>412752.7058505978</v>
+        <v>413629.8379843477</v>
       </c>
       <c r="L6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="M6" t="n">
-        <v>277951.6906167606</v>
+        <v>278828.8227505101</v>
       </c>
       <c r="N6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="O6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="P6" t="n">
-        <v>412752.7058505979</v>
+        <v>413629.8379843473</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>144.4303949824172</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>312.449990543382</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>184.5463981235306</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0.2266482006004367</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7069916148866</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>125.6297823812641</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>190.7623767421587</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>67.34219010766166</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>1.882105749397013</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29222,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>565.9730352236576</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299068</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
